--- a/Team6_API_Hackathon/Team6_API_Hackathon_API_Mavericks/TestData/API_MAVERICKS_RESTASSURED_DATA.xlsx
+++ b/Team6_API_Hackathon/Team6_API_Hackathon_API_Mavericks/TestData/API_MAVERICKS_RESTASSURED_DATA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC27A176-C2C5-4CEA-B59F-1E3A545177DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC23115-4B8D-49DD-AB83-D0EBE8292030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7BF95C73-B0EC-4F0F-B789-EBDEEB3DB3D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7BF95C73-B0EC-4F0F-B789-EBDEEB3DB3D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dietician_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="User_Login" sheetId="1" r:id="rId1"/>
     <sheet name="New_Patient" sheetId="2" r:id="rId2"/>
     <sheet name="Update_Patient" sheetId="3" r:id="rId3"/>
+    <sheet name="Invalid_Credentials" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>password</t>
   </si>
@@ -41,43 +42,37 @@
     <t>Aganesan041989@gmail.com</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>ContactNumber</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Allergy</t>
   </si>
   <si>
     <t>FoodCategory</t>
   </si>
   <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>Anki</t>
-  </si>
-  <si>
-    <t>Manki</t>
-  </si>
-  <si>
-    <t>anki.manki@gmail.com</t>
-  </si>
-  <si>
     <t>Egg</t>
   </si>
   <si>
     <t>Vegan</t>
   </si>
   <si>
-    <t>Panki</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>art12</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>rain12</t>
+  </si>
+  <si>
+    <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -122,11 +117,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A14CFC2-F330-446B-B51A-1CCB80AD98F3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +463,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -477,69 +475,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A54411-0725-4E8E-BCE9-8C65A06252AF}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
-        <v>33583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A7993F31-C2C9-48CE-8B61-C9AC2DAD4854}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -554,27 +517,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>7892561230</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3753969-3B83-450C-B09D-44477CD3B538}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{86850E80-C295-48D1-AC57-EC9D3445BB48}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>